--- a/Deliverable_2/Blackbear-Consultants_Deliverable_2_ProductBacklog_1.xlsx
+++ b/Deliverable_2/Blackbear-Consultants_Deliverable_2_ProductBacklog_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\GitHub\Blackbear-Consultants\Deliverable_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B8659D-5EFD-4CF1-BF85-43A29751D483}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1548CF2-4674-4587-96D6-1DD56D46656E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="49">
   <si>
     <t>Story ID</t>
   </si>
@@ -128,51 +128,6 @@
   </si>
   <si>
     <t>As a user (instructor) I want the app to probe the child to get an understanding of what they know so that the app can better teach the child things that they have not learned, as well as not teach them things they have already mastered</t>
-  </si>
-  <si>
-    <t>Product owner</t>
-  </si>
-  <si>
-    <t>manage the product backlog</t>
-  </si>
-  <si>
-    <t>Order items in the product backlog</t>
-  </si>
-  <si>
-    <t>make the product backlog visible to all</t>
-  </si>
-  <si>
-    <t>determine what is done and is acceptable in the sprint</t>
-  </si>
-  <si>
-    <t>creates required documents</t>
-  </si>
-  <si>
-    <t>may cancel a sprint if the sprint goal becomes obsolete</t>
-  </si>
-  <si>
-    <t>Product Backlog</t>
-  </si>
-  <si>
-    <t>Sprint reviewing</t>
-  </si>
-  <si>
-    <t>Product owner marks what items are "done" and "not done" on the sprint backlog file</t>
-  </si>
-  <si>
-    <t>Dev team discusses what went well, what problems occurred, and how the problems were solved</t>
-  </si>
-  <si>
-    <t>Dev team demonstrates the work "done (software and documents)</t>
-  </si>
-  <si>
-    <t>Product owner discusses the product backlog and any changes due to time, budget, or market issues</t>
-  </si>
-  <si>
-    <t>Product owner, dev team, scrumboi talk about what to do next from their perspectives</t>
-  </si>
-  <si>
-    <t>Another dev team downloads, compiles, executes, and reviews the product and other project artifacts</t>
   </si>
   <si>
     <t>As a user (instructor), I want to have access to what the child is struggling on in the application so that I know what to work on with the child in person.</t>
@@ -755,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -801,10 +756,10 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -819,14 +774,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F3" s="18">
         <v>3</v>
@@ -838,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -852,10 +807,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F4" s="18">
         <v>2</v>
@@ -880,10 +835,10 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F5" s="18">
         <v>2</v>
@@ -908,10 +863,10 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F6" s="18">
         <v>4</v>
@@ -932,14 +887,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F7" s="18">
         <v>2</v>
@@ -958,14 +913,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F8" s="18">
         <v>1</v>
@@ -985,10 +940,10 @@
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F9" s="18">
         <v>4</v>
@@ -1007,16 +962,16 @@
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -1028,10 +983,10 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18">
         <v>2</v>
@@ -1042,14 +997,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F12" s="18">
         <v>1</v>
@@ -1061,14 +1016,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F13" s="18">
         <v>6</v>
@@ -1083,10 +1038,10 @@
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F14" s="18">
         <v>6</v>
@@ -1097,14 +1052,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F15" s="18">
         <v>4</v>
@@ -1119,10 +1074,10 @@
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F16" s="18">
         <v>4</v>
@@ -1137,10 +1092,10 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F17" s="18">
         <v>2</v>
@@ -1155,10 +1110,10 @@
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F18" s="18">
         <v>3</v>
@@ -1173,10 +1128,10 @@
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F19" s="18">
         <v>4</v>
@@ -1191,10 +1146,10 @@
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
@@ -1209,10 +1164,10 @@
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F21" s="18">
         <v>2</v>
@@ -1227,10 +1182,10 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F22" s="18">
         <v>2</v>
@@ -1241,14 +1196,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F23" s="18">
         <v>3</v>
@@ -1263,10 +1218,10 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F24" s="18">
         <v>1</v>
@@ -1277,14 +1232,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F25" s="16">
         <v>5</v>
@@ -1295,14 +1250,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F26" s="18">
         <v>1</v>
@@ -1317,10 +1272,10 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F27" s="20">
         <v>3</v>
@@ -1328,79 +1283,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F31" s="12"/>
-      <c r="G31" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
+      <c r="G31" s="9"/>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J53" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J59" t="s">
-        <v>39</v>
-      </c>
+      <c r="J53" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1410,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A03B3-FB6E-4397-91FC-E98A3E658AB9}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1458,10 +1344,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F2" s="17">
         <v>6</v>
@@ -1476,16 +1362,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="16">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F3" s="18">
         <v>3</v>
@@ -1497,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -1511,10 +1397,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F4" s="18">
         <v>2</v>
@@ -1539,10 +1425,10 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F5" s="18">
         <v>2</v>
@@ -1569,10 +1455,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F6" s="18">
         <v>4</v>
@@ -1593,14 +1479,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F7" s="18">
         <v>2</v>
@@ -1619,14 +1505,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F8" s="18">
         <v>1</v>
@@ -1648,10 +1534,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F9" s="18">
         <v>4</v>
@@ -1670,16 +1556,16 @@
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -1691,10 +1577,10 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18">
         <v>2</v>
@@ -1705,14 +1591,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F12" s="18">
         <v>1</v>
@@ -1724,14 +1610,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F13" s="18">
         <v>6</v>
@@ -1746,10 +1632,10 @@
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F14" s="18">
         <v>6</v>
@@ -1760,14 +1646,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F15" s="18">
         <v>4</v>
@@ -1782,10 +1668,10 @@
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F16" s="18">
         <v>4</v>
@@ -1800,10 +1686,10 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F17" s="18">
         <v>2</v>
@@ -1818,10 +1704,10 @@
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F18" s="18">
         <v>3</v>
@@ -1838,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F19" s="18">
         <v>4</v>
@@ -1858,10 +1744,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
@@ -1878,10 +1764,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F21" s="18">
         <v>2</v>
@@ -1896,10 +1782,10 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F22" s="18">
         <v>2</v>
@@ -1910,14 +1796,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F23" s="18">
         <v>3</v>
@@ -1932,10 +1818,10 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F24" s="18">
         <v>1</v>
@@ -1946,14 +1832,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F25" s="16">
         <v>5</v>
@@ -1964,14 +1850,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F26" s="18">
         <v>1</v>
@@ -1986,10 +1872,10 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F27" s="20">
         <v>3</v>
@@ -1997,79 +1883,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F31" s="12"/>
-      <c r="G31" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
+      <c r="G31" s="9"/>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J53" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J59" t="s">
-        <v>39</v>
-      </c>
+      <c r="J53" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverable_2/Blackbear-Consultants_Deliverable_2_ProductBacklog_1.xlsx
+++ b/Deliverable_2/Blackbear-Consultants_Deliverable_2_ProductBacklog_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\GitHub\Blackbear-Consultants\Deliverable_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1548CF2-4674-4587-96D6-1DD56D46656E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E760234-EC2C-4FDA-9593-F6AA475EF916}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="50">
   <si>
     <t>Story ID</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>IP</t>
+  </si>
+  <si>
+    <t>2 &amp; 3</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -396,6 +399,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G31" sqref="G31:N59"/>
     </sheetView>
   </sheetViews>
@@ -1298,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A03B3-FB6E-4397-91FC-E98A3E658AB9}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1340,8 +1346,8 @@
       <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16">
-        <v>2</v>
+      <c r="C2" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>43</v>
@@ -1364,8 +1370,8 @@
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="16">
-        <v>2</v>
+      <c r="C3" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>43</v>
@@ -1451,8 +1457,8 @@
       <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="16">
-        <v>2</v>
+      <c r="C6" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>44</v>
@@ -1530,8 +1536,8 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="16">
-        <v>2</v>
+      <c r="C9" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>42</v>
@@ -1720,8 +1726,8 @@
       <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="16">
-        <v>2</v>
+      <c r="C19" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>42</v>
@@ -1740,8 +1746,8 @@
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="16">
-        <v>2</v>
+      <c r="C20" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>42</v>
@@ -1760,8 +1766,8 @@
       <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16">
-        <v>2</v>
+      <c r="C21" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>42</v>

--- a/Deliverable_2/Blackbear-Consultants_Deliverable_2_ProductBacklog_1.xlsx
+++ b/Deliverable_2/Blackbear-Consultants_Deliverable_2_ProductBacklog_1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\GitHub\Blackbear-Consultants\Deliverable_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Things\Code\COS420\Blackbear-Consultants\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E760234-EC2C-4FDA-9593-F6AA475EF916}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B672C235-4B81-4C38-89E0-6473D2673530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_gjdgxs" localSheetId="0">'Sprint 1'!$B$23</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="51">
   <si>
     <t>Story ID</t>
   </si>
@@ -179,13 +180,19 @@
   </si>
   <si>
     <t>2 &amp; 3</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +202,13 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -357,10 +371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -402,8 +417,12 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1304,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A03B3-FB6E-4397-91FC-E98A3E658AB9}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1897,4 +1916,604 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB13660-E53E-4BE7-88F7-3A03C97C9624}">
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.875" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="17">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="18">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5">
+        <v>6</v>
+      </c>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="18">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="12"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Deliverable_2/Blackbear-Consultants_Deliverable_2_ProductBacklog_1.xlsx
+++ b/Deliverable_2/Blackbear-Consultants_Deliverable_2_ProductBacklog_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\GitHub\Blackbear-Consultants\Deliverable_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Things\Code\COS420\Blackbear-Consultants\Deliverable_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E760234-EC2C-4FDA-9593-F6AA475EF916}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA22BD4-875E-429C-B51B-EBF866B8C200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
     <t>IP</t>
   </si>
   <si>
-    <t>2 &amp; 3</t>
+    <t>2, 3, 4</t>
   </si>
 </sst>
 </file>
